--- a/MES/Laenud.xlsx
+++ b/MES/Laenud.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t xml:space="preserve">Registrikood</t>
   </si>
@@ -305,6 +305,42 @@
   </si>
   <si>
     <t xml:space="preserve">Übernord OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpema OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandivere Pansion OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imastu Hooldekodu OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mooritsa Agro OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liivi Farm OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahlametsa OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMMSprattus OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pärtli Grupp OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MesiMagus OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contal Import OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyPulp OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veebimaakler OÜ</t>
   </si>
 </sst>
 </file>
@@ -320,6 +356,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -341,6 +378,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,6 +434,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -415,15 +461,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,6 +2012,188 @@
       </c>
       <c r="D110" s="2" t="n">
         <v>46234</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>12430237</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>29000</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>12467758</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>170000</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>11668037</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D113" s="4" t="n">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>12888284</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D114" s="4" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>11464091</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D115" s="4" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>14098623</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D116" s="4" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>12321577</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>258800</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>14331700</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D118" s="4" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>14592091</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>880000</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>47542</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>11983187</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D120" s="4" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>11264624</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D121" s="4" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>14413349</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>12311194</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D123" s="4" t="n">
+        <v>47695</v>
       </c>
     </row>
   </sheetData>

--- a/MES/Laenud.xlsx
+++ b/MES/Laenud.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
   <si>
     <t xml:space="preserve">Registrikood</t>
   </si>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Karli talu</t>
   </si>
   <si>
-    <t xml:space="preserve">awe &amp; aser oü </t>
+    <t xml:space="preserve">Awe ja Aser OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">Vinni Spordikompleks AS</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">M.V.WOOL AS</t>
   </si>
   <si>
-    <t xml:space="preserve">Maitsest Maitsesse oü</t>
+    <t xml:space="preserve">Osaühing Maitsest Maitsesse</t>
   </si>
   <si>
     <t xml:space="preserve">Rein Parve Kriguli talu</t>
@@ -277,10 +277,10 @@
     <t xml:space="preserve">Sürgavere Põllumajandusühistu</t>
   </si>
   <si>
-    <t xml:space="preserve">Oü Soone Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oü Lemok</t>
+    <t xml:space="preserve">Soone Farm OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemok OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">Hekva OÜ</t>
@@ -310,37 +310,109 @@
     <t xml:space="preserve">Inpema OÜ</t>
   </si>
   <si>
-    <t xml:space="preserve">Pandivere Pansion OÜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imastu Hooldekodu OÜ</t>
+    <t xml:space="preserve">Pandivere Pansion OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imastu Hooldekodu OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">Mooritsa Agro OÜ</t>
   </si>
   <si>
-    <t xml:space="preserve">Liivi Farm OÜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahlametsa OÜ</t>
+    <t xml:space="preserve">Liivi Farm OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahlametsa OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">MMMSprattus OÜ</t>
   </si>
   <si>
-    <t xml:space="preserve">Pärtli Grupp OÜ</t>
+    <t xml:space="preserve">Saare Peekon OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo Farm OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pärtli Grupp OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiiumaa Agro OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">MesiMagus OÜ</t>
   </si>
   <si>
-    <t xml:space="preserve">Contal Import OÜ</t>
+    <t xml:space="preserve">Contal Import OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">MyPulp OÜ</t>
   </si>
   <si>
     <t xml:space="preserve">Veebimaakler OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuusemäe Talutoit OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saitklap OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koplimäe Agro OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saimre Seakasvatuse OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracare OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arvo Riisalu FIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brek OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mäeotsa Mahetalu OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teedla Mõis AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osaühing Mustjõe Talu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kihnu Kultuuriruum SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bets&amp;Mats OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varudi Mõis OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loigu Põld OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kare Mahe OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kärla Põllumajandusühistu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralex OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Äärmusliku Spordi AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lümanda Lihaveis OÜ (endine Lõukapõllu OÜ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Järve Lihatööstus OÜ</t>
   </si>
 </sst>
 </file>
@@ -349,7 +421,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M/YY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -423,8 +495,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,7 +508,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,30 +537,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D153" activeCellId="0" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -498,7 +576,7 @@
       <c r="C2" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>46112</v>
       </c>
     </row>
@@ -512,7 +590,7 @@
       <c r="C3" s="0" t="n">
         <v>131558</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -526,7 +604,7 @@
       <c r="C4" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1" t="n">
         <v>45657</v>
       </c>
     </row>
@@ -540,7 +618,7 @@
       <c r="C5" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -554,7 +632,7 @@
       <c r="C6" s="0" t="n">
         <v>220000</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <v>45777</v>
       </c>
     </row>
@@ -568,7 +646,7 @@
       <c r="C7" s="0" t="n">
         <v>287564</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>47483</v>
       </c>
     </row>
@@ -582,7 +660,7 @@
       <c r="C8" s="0" t="n">
         <v>65000</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>45657</v>
       </c>
     </row>
@@ -596,7 +674,7 @@
       <c r="C9" s="0" t="n">
         <v>25500</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="1" t="n">
         <v>47603</v>
       </c>
     </row>
@@ -610,7 +688,7 @@
       <c r="C10" s="0" t="n">
         <v>75000</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -624,7 +702,7 @@
       <c r="C11" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -638,7 +716,7 @@
       <c r="C12" s="0" t="n">
         <v>135000</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -652,7 +730,7 @@
       <c r="C13" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -666,7 +744,7 @@
       <c r="C14" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="1" t="n">
         <v>47542</v>
       </c>
     </row>
@@ -680,7 +758,7 @@
       <c r="C15" s="0" t="n">
         <v>26000</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="1" t="n">
         <v>46083</v>
       </c>
     </row>
@@ -694,7 +772,7 @@
       <c r="C16" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -708,7 +786,7 @@
       <c r="C17" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="1" t="n">
         <v>44712</v>
       </c>
     </row>
@@ -722,7 +800,7 @@
       <c r="C18" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -736,7 +814,7 @@
       <c r="C19" s="0" t="n">
         <v>76000</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -750,7 +828,7 @@
       <c r="C20" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -764,7 +842,7 @@
       <c r="C21" s="0" t="n">
         <v>338000</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -778,7 +856,7 @@
       <c r="C22" s="0" t="n">
         <v>120000</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="1" t="n">
         <v>45292</v>
       </c>
     </row>
@@ -792,7 +870,7 @@
       <c r="C23" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -806,7 +884,7 @@
       <c r="C24" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -820,7 +898,7 @@
       <c r="C25" s="0" t="n">
         <v>63000</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="1" t="n">
         <v>46112</v>
       </c>
     </row>
@@ -834,7 +912,7 @@
       <c r="C26" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -848,7 +926,7 @@
       <c r="C27" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="1" t="n">
         <v>45810</v>
       </c>
     </row>
@@ -862,7 +940,7 @@
       <c r="C28" s="0" t="n">
         <v>7000</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -876,7 +954,7 @@
       <c r="C29" s="0" t="n">
         <v>150000</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -890,7 +968,7 @@
       <c r="C30" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -904,7 +982,7 @@
       <c r="C31" s="0" t="n">
         <v>55000</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -918,7 +996,7 @@
       <c r="C32" s="0" t="n">
         <v>1260000</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -932,7 +1010,7 @@
       <c r="C33" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -946,7 +1024,7 @@
       <c r="C34" s="0" t="n">
         <v>1920000</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -960,7 +1038,7 @@
       <c r="C35" s="0" t="n">
         <v>320000</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="1" t="n">
         <v>46173</v>
       </c>
     </row>
@@ -974,7 +1052,7 @@
       <c r="C36" s="0" t="n">
         <v>104000</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="1" t="n">
         <v>46783</v>
       </c>
     </row>
@@ -988,7 +1066,7 @@
       <c r="C37" s="0" t="n">
         <v>96000</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="1" t="n">
         <v>46783</v>
       </c>
     </row>
@@ -1002,7 +1080,7 @@
       <c r="C38" s="0" t="n">
         <v>30000</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1016,7 +1094,7 @@
       <c r="C39" s="0" t="n">
         <v>80000</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1030,7 +1108,7 @@
       <c r="C40" s="0" t="n">
         <v>3400000</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1044,7 +1122,7 @@
       <c r="C41" s="0" t="n">
         <v>376000</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1058,7 +1136,7 @@
       <c r="C42" s="0" t="n">
         <v>2500000</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1072,7 +1150,7 @@
       <c r="C43" s="0" t="n">
         <v>400000</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="1" t="n">
         <v>47659</v>
       </c>
     </row>
@@ -1086,7 +1164,7 @@
       <c r="C44" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -1100,7 +1178,7 @@
       <c r="C45" s="0" t="n">
         <v>420000</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1114,7 +1192,7 @@
       <c r="C46" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="1" t="n">
         <v>45077</v>
       </c>
     </row>
@@ -1128,7 +1206,7 @@
       <c r="C47" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="1" t="n">
         <v>46055</v>
       </c>
     </row>
@@ -1142,7 +1220,7 @@
       <c r="C48" s="0" t="n">
         <v>200000</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1156,7 +1234,7 @@
       <c r="C49" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -1170,7 +1248,7 @@
       <c r="C50" s="0" t="n">
         <v>170000</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1184,7 +1262,7 @@
       <c r="C51" s="0" t="n">
         <v>300000</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="1" t="n">
         <v>44228</v>
       </c>
     </row>
@@ -1198,7 +1276,7 @@
       <c r="C52" s="0" t="n">
         <v>120000</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -1212,7 +1290,7 @@
       <c r="C53" s="0" t="n">
         <v>184075</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="1" t="n">
         <v>47659</v>
       </c>
     </row>
@@ -1226,7 +1304,7 @@
       <c r="C54" s="0" t="n">
         <v>110000</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="1" t="n">
         <v>45468</v>
       </c>
     </row>
@@ -1240,7 +1318,7 @@
       <c r="C55" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="1" t="n">
         <v>44985</v>
       </c>
     </row>
@@ -1254,7 +1332,7 @@
       <c r="C56" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="1" t="n">
         <v>46174</v>
       </c>
     </row>
@@ -1268,7 +1346,7 @@
       <c r="C57" s="0" t="n">
         <v>155000</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="1" t="n">
         <v>47634</v>
       </c>
     </row>
@@ -1282,7 +1360,7 @@
       <c r="C58" s="0" t="n">
         <v>49680</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1296,7 +1374,7 @@
       <c r="C59" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1310,7 +1388,7 @@
       <c r="C60" s="0" t="n">
         <v>146000</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1324,7 +1402,7 @@
       <c r="C61" s="0" t="n">
         <v>300000</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1338,7 +1416,7 @@
       <c r="C62" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="1" t="n">
         <v>45107</v>
       </c>
     </row>
@@ -1352,7 +1430,7 @@
       <c r="C63" s="0" t="n">
         <v>293184</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1366,7 +1444,7 @@
       <c r="C64" s="0" t="n">
         <v>206816</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1380,7 +1458,7 @@
       <c r="C65" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="1" t="n">
         <v>46112</v>
       </c>
     </row>
@@ -1394,7 +1472,7 @@
       <c r="C66" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1408,7 +1486,7 @@
       <c r="C67" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1422,7 +1500,7 @@
       <c r="C68" s="0" t="n">
         <v>66020</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="1" t="n">
         <v>45230</v>
       </c>
     </row>
@@ -1436,7 +1514,7 @@
       <c r="C69" s="0" t="n">
         <v>283650</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1450,7 +1528,7 @@
       <c r="C70" s="0" t="n">
         <v>30000</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1464,7 +1542,7 @@
       <c r="C71" s="0" t="n">
         <v>40987</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="1" t="n">
         <v>45474</v>
       </c>
     </row>
@@ -1478,7 +1556,7 @@
       <c r="C72" s="0" t="n">
         <v>95000</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1492,7 +1570,7 @@
       <c r="C73" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="1" t="n">
         <v>44200</v>
       </c>
     </row>
@@ -1506,7 +1584,7 @@
       <c r="C74" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1520,7 +1598,7 @@
       <c r="C75" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1534,7 +1612,7 @@
       <c r="C76" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="1" t="n">
         <v>45474</v>
       </c>
     </row>
@@ -1548,7 +1626,7 @@
       <c r="C77" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1562,7 +1640,7 @@
       <c r="C78" s="0" t="n">
         <v>60000</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="1" t="n">
         <v>46022</v>
       </c>
     </row>
@@ -1576,7 +1654,7 @@
       <c r="C79" s="0" t="n">
         <v>30000</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1590,7 +1668,7 @@
       <c r="C80" s="0" t="n">
         <v>47000</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1604,7 +1682,7 @@
       <c r="C81" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="1" t="n">
         <v>46387</v>
       </c>
     </row>
@@ -1618,7 +1696,7 @@
       <c r="C82" s="0" t="n">
         <v>80000</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1632,7 +1710,7 @@
       <c r="C83" s="0" t="n">
         <v>40000</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1646,7 +1724,7 @@
       <c r="C84" s="0" t="n">
         <v>120000</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1660,7 +1738,7 @@
       <c r="C85" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -1674,7 +1752,7 @@
       <c r="C86" s="0" t="n">
         <v>240000</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1688,7 +1766,7 @@
       <c r="C87" s="0" t="n">
         <v>413045</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1702,7 +1780,7 @@
       <c r="C88" s="0" t="n">
         <v>80000</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="1" t="n">
         <v>46204</v>
       </c>
     </row>
@@ -1716,7 +1794,7 @@
       <c r="C89" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="1" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -1730,7 +1808,7 @@
       <c r="C90" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1744,7 +1822,7 @@
       <c r="C91" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="1" t="n">
         <v>45293</v>
       </c>
     </row>
@@ -1758,7 +1836,7 @@
       <c r="C92" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -1772,7 +1850,7 @@
       <c r="C93" s="0" t="n">
         <v>70000</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1786,7 +1864,7 @@
       <c r="C94" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="1" t="n">
         <v>46204</v>
       </c>
     </row>
@@ -1800,7 +1878,7 @@
       <c r="C95" s="0" t="n">
         <v>150000</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1814,7 +1892,7 @@
       <c r="C96" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1828,7 +1906,7 @@
       <c r="C97" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1842,7 +1920,7 @@
       <c r="C98" s="0" t="n">
         <v>17000</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="1" t="n">
         <v>44561</v>
       </c>
     </row>
@@ -1856,7 +1934,7 @@
       <c r="C99" s="0" t="n">
         <v>950000</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1870,7 +1948,7 @@
       <c r="C100" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -1884,7 +1962,7 @@
       <c r="C101" s="0" t="n">
         <v>120000</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="1" t="n">
         <v>46203</v>
       </c>
     </row>
@@ -1898,7 +1976,7 @@
       <c r="C102" s="0" t="n">
         <v>56000</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -1912,7 +1990,7 @@
       <c r="C103" s="0" t="n">
         <v>166000</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -1926,7 +2004,7 @@
       <c r="C104" s="0" t="n">
         <v>178000</v>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -1940,7 +2018,7 @@
       <c r="C105" s="0" t="n">
         <v>278200</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1954,7 +2032,7 @@
       <c r="C106" s="0" t="n">
         <v>300000</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -1968,7 +2046,7 @@
       <c r="C107" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -1982,7 +2060,7 @@
       <c r="C108" s="0" t="n">
         <v>25000</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="1" t="n">
         <v>47665</v>
       </c>
     </row>
@@ -1996,7 +2074,7 @@
       <c r="C109" s="0" t="n">
         <v>30000</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -2010,7 +2088,7 @@
       <c r="C110" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="1" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -2018,13 +2096,13 @@
       <c r="A111" s="0" t="n">
         <v>12430237</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="4" t="n">
         <v>29000</v>
       </c>
-      <c r="D111" s="4" t="n">
+      <c r="D111" s="5" t="n">
         <v>46021</v>
       </c>
     </row>
@@ -2032,13 +2110,13 @@
       <c r="A112" s="0" t="n">
         <v>12467758</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="4" t="n">
         <v>170000</v>
       </c>
-      <c r="D112" s="4" t="n">
+      <c r="D112" s="5" t="n">
         <v>46234</v>
       </c>
     </row>
@@ -2046,13 +2124,13 @@
       <c r="A113" s="0" t="n">
         <v>11668037</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="4" t="n">
         <v>150000</v>
       </c>
-      <c r="D113" s="4" t="n">
+      <c r="D113" s="5" t="n">
         <v>45869</v>
       </c>
     </row>
@@ -2060,13 +2138,13 @@
       <c r="A114" s="0" t="n">
         <v>12888284</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="4" t="n">
         <v>90000</v>
       </c>
-      <c r="D114" s="4" t="n">
+      <c r="D114" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -2074,13 +2152,13 @@
       <c r="A115" s="0" t="n">
         <v>11464091</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="D115" s="4" t="n">
+      <c r="D115" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -2088,13 +2166,13 @@
       <c r="A116" s="0" t="n">
         <v>14098623</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="4" t="n">
         <v>140000</v>
       </c>
-      <c r="D116" s="4" t="n">
+      <c r="D116" s="1" t="n">
         <v>47695</v>
       </c>
     </row>
@@ -2102,98 +2180,518 @@
       <c r="A117" s="0" t="n">
         <v>12321577</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="4" t="n">
         <v>258800</v>
       </c>
-      <c r="D117" s="4" t="n">
+      <c r="D117" s="5" t="n">
         <v>46234</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>14331700</v>
-      </c>
-      <c r="B118" s="3" t="s">
+        <v>10216014</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C118" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D118" s="4" t="n">
+      <c r="C118" s="4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D118" s="5" t="n">
         <v>46234</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>14592091</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="3" t="n">
-        <v>880000</v>
-      </c>
-      <c r="D119" s="4" t="n">
-        <v>47542</v>
+        <v>12277669</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>90000</v>
+      </c>
+      <c r="D119" s="5" t="n">
+        <v>46234</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>11983187</v>
-      </c>
-      <c r="B120" s="3" t="s">
+        <v>12277669</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D120" s="4" t="n">
+      <c r="C120" s="4" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D120" s="5" t="n">
         <v>46234</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>11264624</v>
-      </c>
-      <c r="B121" s="3" t="s">
+        <v>14331700</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="3" t="n">
-        <v>150000</v>
-      </c>
-      <c r="D121" s="4" t="n">
-        <v>47695</v>
+      <c r="C121" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D121" s="5" t="n">
+        <v>46234</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>14413349</v>
-      </c>
-      <c r="B122" s="3" t="s">
+        <v>10655854</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="D122" s="4" t="n">
-        <v>46055</v>
+      <c r="D122" s="5" t="n">
+        <v>46234</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
+        <v>14592091</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>880000</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>47542</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>11983187</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>11264624</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>14413349</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
         <v>12311194</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C123" s="3" t="n">
+      <c r="B127" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="0" t="n">
         <v>150000</v>
       </c>
-      <c r="D123" s="4" t="n">
+      <c r="D127" s="1" t="n">
         <v>47695</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>11919976</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>11395800</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>11395800</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>114000</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>10844970</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>232445</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>46258</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>10844970</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>46258</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>10034359</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>11739406</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>11739406</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>10310256</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>14126348</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>192000</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>10310256</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>14022703</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>11126454</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>10271125</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>10286306</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>47728</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>90004639</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>46234</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>14115089</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>11189213</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>47723</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>12802839</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>155222</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>47695</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>14003226</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>47542</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>12973713</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>10276370</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>46265</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>11423778</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>47728</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>10211494</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>47728</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>12193754</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>47728</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>12010015</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>256000</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>47728</v>
       </c>
     </row>
   </sheetData>
